--- a/src/models/data/booking.xlsx
+++ b/src/models/data/booking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31AF76A-DEC4-4116-AFEA-F28A8E5CEE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F73E14-AD44-41FC-AFAB-5FB8073263C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3168" yWindow="2184" windowWidth="19224" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="95">
   <si>
     <t>id</t>
   </si>
@@ -249,6 +249,78 @@
   </si>
   <si>
     <t>04f4b75b-eced-4036-a76c-446b9f1acd5c</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>2023-04-20</t>
+  </si>
+  <si>
+    <t>2023-04-21</t>
+  </si>
+  <si>
+    <t>2023-04-22</t>
+  </si>
+  <si>
+    <t>2023-04-23</t>
+  </si>
+  <si>
+    <t>2023-04-24</t>
+  </si>
+  <si>
+    <t>2023-04-25</t>
+  </si>
+  <si>
+    <t>2023-04-26</t>
+  </si>
+  <si>
+    <t>2023-04-27</t>
+  </si>
+  <si>
+    <t>2023-05-05</t>
+  </si>
+  <si>
+    <t>2023-05-06</t>
+  </si>
+  <si>
+    <t>2023-05-07</t>
+  </si>
+  <si>
+    <t>2023-05-08</t>
+  </si>
+  <si>
+    <t>2023-05-09</t>
+  </si>
+  <si>
+    <t>2023-05-10</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>2023-05-12</t>
+  </si>
+  <si>
+    <t>2023-05-13</t>
+  </si>
+  <si>
+    <t>2023-05-14</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>2023-05-16</t>
+  </si>
+  <si>
+    <t>2023-05-17</t>
+  </si>
+  <si>
+    <t>2023-05-18</t>
+  </si>
+  <si>
+    <t>bookedAt</t>
   </si>
 </sst>
 </file>
@@ -267,6 +339,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -296,8 +369,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,28 +653,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:F106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.21875" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" customWidth="1"/>
     <col min="11" max="11" width="11.21875" customWidth="1"/>
     <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -619,8 +694,14 @@
       <c r="F1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -639,8 +720,14 @@
       <c r="F2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -659,8 +746,14 @@
       <c r="F3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -679,8 +772,14 @@
       <c r="F4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -699,8 +798,14 @@
       <c r="F5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -719,8 +824,14 @@
       <c r="F6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -739,8 +850,14 @@
       <c r="F7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -759,8 +876,14 @@
       <c r="F8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -779,8 +902,14 @@
       <c r="F9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -799,8 +928,14 @@
       <c r="F10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -819,8 +954,14 @@
       <c r="F11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -839,8 +980,14 @@
       <c r="F12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -859,8 +1006,14 @@
       <c r="F13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -879,8 +1032,14 @@
       <c r="F14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -899,8 +1058,14 @@
       <c r="F15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -919,8 +1084,14 @@
       <c r="F16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -939,8 +1110,14 @@
       <c r="F17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -959,8 +1136,14 @@
       <c r="F18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -979,8 +1162,14 @@
       <c r="F19" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -999,8 +1188,14 @@
       <c r="F20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1019,8 +1214,14 @@
       <c r="F21" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -1039,8 +1240,14 @@
       <c r="F22" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1058,6 +1265,12 @@
       </c>
       <c r="F23" t="s">
         <v>29</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/src/models/data/booking.xlsx
+++ b/src/models/data/booking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F73E14-AD44-41FC-AFAB-5FB8073263C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E79C265-ACD8-44ED-B8FD-13A6915A93B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="97">
   <si>
     <t>id</t>
   </si>
@@ -59,57 +59,12 @@
     <t>e1ea43f9-5586-49b1-be80-3069f718b124</t>
   </si>
   <si>
-    <t>2d4dfac2-ec46-4a5c-b947-38204e913098</t>
-  </si>
-  <si>
-    <t>aa727d85-29f9-4f22-a0e9-a6b1d2121f6a</t>
-  </si>
-  <si>
-    <t>a774ef22-1737-4d03-98f1-e93d3f200260</t>
-  </si>
-  <si>
-    <t>07b8e281-a628-41ee-a36c-f405a2e6482b</t>
-  </si>
-  <si>
-    <t>e861f2af-33b9-405b-b9d2-154c08c79d5a</t>
-  </si>
-  <si>
-    <t>af08013a-55dd-4c2f-9d6a-0d868ec81ee0</t>
-  </si>
-  <si>
-    <t>20149793-78ec-43d6-84c3-f299526a8c57</t>
-  </si>
-  <si>
     <t>Booked</t>
   </si>
   <si>
-    <t>6f1b004a-be3b-4484-8731-80bad98196aa</t>
-  </si>
-  <si>
-    <t>be3f79a3-53f2-4eba-96fb-357a6b2c6491</t>
-  </si>
-  <si>
-    <t>d492740a-67f4-4818-8199-e1dd9d1f3e54</t>
-  </si>
-  <si>
-    <t>25d7180d-0fae-4cf3-81c7-139cf3e30e11</t>
-  </si>
-  <si>
-    <t>2a8c48bb-658b-47f3-b565-b960d1988bcf</t>
-  </si>
-  <si>
     <t>a6250655-7ffc-4460-9cf3-c5de049f9e72</t>
   </si>
   <si>
-    <t>96643f7c-e003-45f1-8eaf-90ed70754b8f</t>
-  </si>
-  <si>
-    <t>5fa3496b-976c-417d-aaa7-238975d8e7fd</t>
-  </si>
-  <si>
-    <t>4600b1d8-e1bf-41a9-9ff9-2a64ad2a194a</t>
-  </si>
-  <si>
     <t>id_schedule</t>
   </si>
   <si>
@@ -321,6 +276,57 @@
   </si>
   <si>
     <t>bookedAt</t>
+  </si>
+  <si>
+    <t>2023-04-17</t>
+  </si>
+  <si>
+    <t>1d43cd6d-29ee-4a19-8e2e-ea1a61bd8d65</t>
+  </si>
+  <si>
+    <t>c9c7f0ca-b33f-4c4e-b34b-de5522702cfb</t>
+  </si>
+  <si>
+    <t>540a9de4-1306-490d-ac8c-62043f4cc1f7</t>
+  </si>
+  <si>
+    <t>13ac942d-7f0d-4230-9ed5-16c65523cbc4</t>
+  </si>
+  <si>
+    <t>3a85888c-5ca6-4790-bd12-6e2ca1d89e7d</t>
+  </si>
+  <si>
+    <t>03faa117-3f5d-48ba-a4f1-f8424aa70050</t>
+  </si>
+  <si>
+    <t>dcf2be2b-9af6-45dd-986b-fc09c90cd5b8</t>
+  </si>
+  <si>
+    <t>fc307632-ed3d-48a1-a461-6d1b12d6f088</t>
+  </si>
+  <si>
+    <t>67215bb6-97c7-4eae-a555-76df7e0c3c23</t>
+  </si>
+  <si>
+    <t>2023-05-19</t>
+  </si>
+  <si>
+    <t>2e4384f4-8678-4b13-b455-2b1d358f4bd1</t>
+  </si>
+  <si>
+    <t>9948da97-d556-41c7-b928-c97551ed4f86</t>
+  </si>
+  <si>
+    <t>cebaf35f-bb04-4163-b411-00630fa14f8d</t>
+  </si>
+  <si>
+    <t>f6f7c5d6-e18c-4e48-a35c-ea5160f10843</t>
+  </si>
+  <si>
+    <t>f92f6bc3-30f4-4f2f-a992-fc052571c050</t>
+  </si>
+  <si>
+    <t>71ca1d9c-c761-4b15-bd76-c06553fd61d9</t>
   </si>
 </sst>
 </file>
@@ -369,9 +375,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,7 +663,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H23"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,597 +687,597 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="H1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>90</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
